--- a/www/terminologies/ValueSet-jdv-autre-symptome-ex-neuro-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-autre-symptome-ex-neuro-cisis.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152101</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -166,18 +167,6 @@
     <t>Dysarthrie et anarthrie</t>
   </si>
   <si>
-    <t>H57.04</t>
-  </si>
-  <si>
-    <t>Mydriase</t>
-  </si>
-  <si>
-    <t>H57.03</t>
-  </si>
-  <si>
-    <t>Myosis</t>
-  </si>
-  <si>
     <t>G98</t>
   </si>
   <si>
@@ -218,6 +207,21 @@
   </si>
   <si>
     <t>https://smt.esante.gouv.fr/fhir/CodeSystem/terminologie-cisis</t>
+  </si>
+  <si>
+    <t>37125009</t>
+  </si>
+  <si>
+    <t>mydriase</t>
+  </si>
+  <si>
+    <t>301939004</t>
+  </si>
+  <si>
+    <t>myosis</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -484,7 +488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,31 +623,15 @@
         <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -673,34 +661,91 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-jdv-autre-symptome-ex-neuro-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-autre-symptome-ex-neuro-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152101</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:01+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -191,7 +191,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cim-10</t>
+    <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
     <t>MED-380</t>
